--- a/Question/Microsoft-1-Year.xlsx
+++ b/Question/Microsoft-1-Year.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F07367BB-D671-4FFF-B4E6-F4B6C393257F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFC2E25-1C6C-4233-B9C8-974387457AF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E3EF76B6-B807-4C8A-B7C6-BE04E3341398}"/>
   </bookViews>
@@ -2310,31 +2310,42 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.14999847407452621"/>
-        </patternFill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2541,6 +2552,31 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2555,19 +2591,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18E100CC-849F-4791-9915-118426D74DB4}" name="Table1" displayName="Table1" ref="A1:G357" totalsRowShown="0" headerRowDxfId="0" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18E100CC-849F-4791-9915-118426D74DB4}" name="Table1" displayName="Table1" ref="A1:G357" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:G357" xr:uid="{E5BEF86B-71ED-43EF-9132-A8EFD5AF9580}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F357">
     <sortCondition descending="1" ref="E1:E357"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{4DAE703B-C652-444B-854A-ED9E9F91A16A}" name="Sr.No" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{60D59AD8-991A-4426-A4DF-ED0E6FAFAB55}" name="Name" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{0B3C54AD-CF85-4F9D-9008-29E4245FE580}" name="Acceptance" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{BBB4A01A-CECA-46E4-9D17-5DB7D09CBFD8}" name="Difficulties" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{03AD0673-2159-4374-8B41-FFEF9F01EA5D}" name="Frequency" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{9C7F4DD1-BAC9-4FD9-BF8C-F135E5FEC45A}" name="Url" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{9206C04C-08E4-460A-BC1D-28190C9B68E1}" name="Completion" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{4DAE703B-C652-444B-854A-ED9E9F91A16A}" name="Sr.No" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{60D59AD8-991A-4426-A4DF-ED0E6FAFAB55}" name="Name" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{0B3C54AD-CF85-4F9D-9008-29E4245FE580}" name="Acceptance" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{BBB4A01A-CECA-46E4-9D17-5DB7D09CBFD8}" name="Difficulties" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{03AD0673-2159-4374-8B41-FFEF9F01EA5D}" name="Frequency" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{9C7F4DD1-BAC9-4FD9-BF8C-F135E5FEC45A}" name="Url" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{9206C04C-08E4-460A-BC1D-28190C9B68E1}" name="Completion" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2870,10 +2906,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80398955-B713-43BB-8074-32D833834966}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G357"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10388,7 +10427,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10402,7 +10441,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E1048576">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10416,7 +10455,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10428,7 +10467,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10442,7 +10481,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10456,7 +10495,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10467,8 +10506,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <conditionalFormatting sqref="D2:D1048576">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
